--- a/encuestas.xlsx
+++ b/encuestas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcalcina\Downloads\r largo\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9C4C76-88F2-4DA0-AAA9-9654539E3620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A30205-B5B4-4F6D-8CB7-AE11E16324C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5839EFA-8DEA-4060-B3F2-F6908100608A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="43">
   <si>
     <t>fuente</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>El Deber - Spie Consulting 2</t>
+  </si>
+  <si>
+    <t>Unitel - Ipsos Ciesmori 3</t>
   </si>
 </sst>
 </file>
@@ -575,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E5B6EA-6F2E-4584-9918-B63E0CE8D433}">
-  <dimension ref="A1:E744"/>
+  <dimension ref="A1:E851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A712" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B737" sqref="B737"/>
+    <sheetView tabSelected="1" topLeftCell="A720" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C851" sqref="C851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13017,43 +13020,2044 @@
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B732" s="3"/>
+      <c r="A732" t="s">
+        <v>42</v>
+      </c>
+      <c r="B732" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C732" t="s">
+        <v>8</v>
+      </c>
+      <c r="D732" t="s">
+        <v>7</v>
+      </c>
+      <c r="E732">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B733" s="3"/>
+      <c r="A733" t="s">
+        <v>42</v>
+      </c>
+      <c r="B733" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C733" t="s">
+        <v>9</v>
+      </c>
+      <c r="D733" t="s">
+        <v>7</v>
+      </c>
+      <c r="E733">
+        <v>19.600000000000001</v>
+      </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B734" s="3"/>
+      <c r="A734" t="s">
+        <v>42</v>
+      </c>
+      <c r="B734" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C734" t="s">
+        <v>6</v>
+      </c>
+      <c r="D734" t="s">
+        <v>7</v>
+      </c>
+      <c r="E734">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B735" s="3"/>
+      <c r="A735" t="s">
+        <v>42</v>
+      </c>
+      <c r="B735" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C735" t="s">
+        <v>10</v>
+      </c>
+      <c r="D735" t="s">
+        <v>7</v>
+      </c>
+      <c r="E735">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B736" s="3"/>
-    </row>
-    <row r="737" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B737" s="3"/>
-    </row>
-    <row r="738" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B738" s="3"/>
-    </row>
-    <row r="739" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B739" s="3"/>
-    </row>
-    <row r="740" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B740" s="3"/>
-    </row>
-    <row r="741" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B741" s="3"/>
-    </row>
-    <row r="742" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B742" s="3"/>
-    </row>
-    <row r="743" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B743" s="3"/>
-    </row>
-    <row r="744" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B744" s="3"/>
+      <c r="A736" t="s">
+        <v>42</v>
+      </c>
+      <c r="B736" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C736" t="s">
+        <v>17</v>
+      </c>
+      <c r="D736" t="s">
+        <v>7</v>
+      </c>
+      <c r="E736">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A737" t="s">
+        <v>42</v>
+      </c>
+      <c r="B737" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C737" t="s">
+        <v>18</v>
+      </c>
+      <c r="D737" t="s">
+        <v>7</v>
+      </c>
+      <c r="E737">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A738" t="s">
+        <v>42</v>
+      </c>
+      <c r="B738" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C738" t="s">
+        <v>19</v>
+      </c>
+      <c r="D738" t="s">
+        <v>7</v>
+      </c>
+      <c r="E738">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A739" t="s">
+        <v>42</v>
+      </c>
+      <c r="B739" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C739" t="s">
+        <v>20</v>
+      </c>
+      <c r="D739" t="s">
+        <v>7</v>
+      </c>
+      <c r="E739">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A740" t="s">
+        <v>42</v>
+      </c>
+      <c r="B740" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C740" t="s">
+        <v>39</v>
+      </c>
+      <c r="D740" t="s">
+        <v>7</v>
+      </c>
+      <c r="E740">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A741" t="s">
+        <v>42</v>
+      </c>
+      <c r="B741" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C741" t="s">
+        <v>22</v>
+      </c>
+      <c r="D741" t="s">
+        <v>7</v>
+      </c>
+      <c r="E741">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A742" t="s">
+        <v>42</v>
+      </c>
+      <c r="B742" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C742" t="s">
+        <v>23</v>
+      </c>
+      <c r="D742" t="s">
+        <v>7</v>
+      </c>
+      <c r="E742">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A743" t="s">
+        <v>42</v>
+      </c>
+      <c r="B743" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C743" t="s">
+        <v>15</v>
+      </c>
+      <c r="D743" t="s">
+        <v>7</v>
+      </c>
+      <c r="E743">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A744" t="s">
+        <v>42</v>
+      </c>
+      <c r="B744" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C744" t="s">
+        <v>8</v>
+      </c>
+      <c r="D744" t="s">
+        <v>26</v>
+      </c>
+      <c r="E744">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A745" t="s">
+        <v>42</v>
+      </c>
+      <c r="B745" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C745" t="s">
+        <v>9</v>
+      </c>
+      <c r="D745" t="s">
+        <v>26</v>
+      </c>
+      <c r="E745">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A746" t="s">
+        <v>42</v>
+      </c>
+      <c r="B746" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C746" t="s">
+        <v>6</v>
+      </c>
+      <c r="D746" t="s">
+        <v>26</v>
+      </c>
+      <c r="E746">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A747" t="s">
+        <v>42</v>
+      </c>
+      <c r="B747" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C747" t="s">
+        <v>10</v>
+      </c>
+      <c r="D747" t="s">
+        <v>26</v>
+      </c>
+      <c r="E747">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A748" t="s">
+        <v>42</v>
+      </c>
+      <c r="B748" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C748" t="s">
+        <v>17</v>
+      </c>
+      <c r="D748" t="s">
+        <v>26</v>
+      </c>
+      <c r="E748">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A749" t="s">
+        <v>42</v>
+      </c>
+      <c r="B749" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C749" t="s">
+        <v>18</v>
+      </c>
+      <c r="D749" t="s">
+        <v>26</v>
+      </c>
+      <c r="E749">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A750" t="s">
+        <v>42</v>
+      </c>
+      <c r="B750" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C750" t="s">
+        <v>19</v>
+      </c>
+      <c r="D750" t="s">
+        <v>26</v>
+      </c>
+      <c r="E750">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A751" t="s">
+        <v>42</v>
+      </c>
+      <c r="B751" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C751" t="s">
+        <v>20</v>
+      </c>
+      <c r="D751" t="s">
+        <v>26</v>
+      </c>
+      <c r="E751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A752" t="s">
+        <v>42</v>
+      </c>
+      <c r="B752" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C752" t="s">
+        <v>39</v>
+      </c>
+      <c r="D752" t="s">
+        <v>26</v>
+      </c>
+      <c r="E752">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A753" t="s">
+        <v>42</v>
+      </c>
+      <c r="B753" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C753" t="s">
+        <v>22</v>
+      </c>
+      <c r="D753" t="s">
+        <v>26</v>
+      </c>
+      <c r="E753">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A754" t="s">
+        <v>42</v>
+      </c>
+      <c r="B754" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C754" t="s">
+        <v>23</v>
+      </c>
+      <c r="D754" t="s">
+        <v>26</v>
+      </c>
+      <c r="E754">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A755" t="s">
+        <v>42</v>
+      </c>
+      <c r="B755" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C755" t="s">
+        <v>15</v>
+      </c>
+      <c r="D755" t="s">
+        <v>26</v>
+      </c>
+      <c r="E755">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A756" t="s">
+        <v>42</v>
+      </c>
+      <c r="B756" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C756" t="s">
+        <v>8</v>
+      </c>
+      <c r="D756" t="s">
+        <v>25</v>
+      </c>
+      <c r="E756">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A757" t="s">
+        <v>42</v>
+      </c>
+      <c r="B757" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C757" t="s">
+        <v>9</v>
+      </c>
+      <c r="D757" t="s">
+        <v>25</v>
+      </c>
+      <c r="E757">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A758" t="s">
+        <v>42</v>
+      </c>
+      <c r="B758" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C758" t="s">
+        <v>6</v>
+      </c>
+      <c r="D758" t="s">
+        <v>25</v>
+      </c>
+      <c r="E758">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A759" t="s">
+        <v>42</v>
+      </c>
+      <c r="B759" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C759" t="s">
+        <v>10</v>
+      </c>
+      <c r="D759" t="s">
+        <v>25</v>
+      </c>
+      <c r="E759">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A760" t="s">
+        <v>42</v>
+      </c>
+      <c r="B760" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C760" t="s">
+        <v>17</v>
+      </c>
+      <c r="D760" t="s">
+        <v>25</v>
+      </c>
+      <c r="E760">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A761" t="s">
+        <v>42</v>
+      </c>
+      <c r="B761" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C761" t="s">
+        <v>18</v>
+      </c>
+      <c r="D761" t="s">
+        <v>25</v>
+      </c>
+      <c r="E761">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A762" t="s">
+        <v>42</v>
+      </c>
+      <c r="B762" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C762" t="s">
+        <v>19</v>
+      </c>
+      <c r="D762" t="s">
+        <v>25</v>
+      </c>
+      <c r="E762">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A763" t="s">
+        <v>42</v>
+      </c>
+      <c r="B763" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C763" t="s">
+        <v>20</v>
+      </c>
+      <c r="D763" t="s">
+        <v>25</v>
+      </c>
+      <c r="E763">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A764" t="s">
+        <v>42</v>
+      </c>
+      <c r="B764" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C764" t="s">
+        <v>39</v>
+      </c>
+      <c r="D764" t="s">
+        <v>25</v>
+      </c>
+      <c r="E764">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A765" t="s">
+        <v>42</v>
+      </c>
+      <c r="B765" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C765" t="s">
+        <v>22</v>
+      </c>
+      <c r="D765" t="s">
+        <v>25</v>
+      </c>
+      <c r="E765">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A766" t="s">
+        <v>42</v>
+      </c>
+      <c r="B766" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C766" t="s">
+        <v>23</v>
+      </c>
+      <c r="D766" t="s">
+        <v>25</v>
+      </c>
+      <c r="E766">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A767" t="s">
+        <v>42</v>
+      </c>
+      <c r="B767" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C767" t="s">
+        <v>15</v>
+      </c>
+      <c r="D767" t="s">
+        <v>25</v>
+      </c>
+      <c r="E767">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A768" t="s">
+        <v>42</v>
+      </c>
+      <c r="B768" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C768" t="s">
+        <v>8</v>
+      </c>
+      <c r="D768" t="s">
+        <v>35</v>
+      </c>
+      <c r="E768">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A769" t="s">
+        <v>42</v>
+      </c>
+      <c r="B769" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C769" t="s">
+        <v>9</v>
+      </c>
+      <c r="D769" t="s">
+        <v>35</v>
+      </c>
+      <c r="E769">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A770" t="s">
+        <v>42</v>
+      </c>
+      <c r="B770" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C770" t="s">
+        <v>6</v>
+      </c>
+      <c r="D770" t="s">
+        <v>35</v>
+      </c>
+      <c r="E770">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A771" t="s">
+        <v>42</v>
+      </c>
+      <c r="B771" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C771" t="s">
+        <v>10</v>
+      </c>
+      <c r="D771" t="s">
+        <v>35</v>
+      </c>
+      <c r="E771">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A772" t="s">
+        <v>42</v>
+      </c>
+      <c r="B772" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C772" t="s">
+        <v>17</v>
+      </c>
+      <c r="D772" t="s">
+        <v>35</v>
+      </c>
+      <c r="E772">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A773" t="s">
+        <v>42</v>
+      </c>
+      <c r="B773" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C773" t="s">
+        <v>18</v>
+      </c>
+      <c r="D773" t="s">
+        <v>35</v>
+      </c>
+      <c r="E773">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A774" t="s">
+        <v>42</v>
+      </c>
+      <c r="B774" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C774" t="s">
+        <v>19</v>
+      </c>
+      <c r="D774" t="s">
+        <v>35</v>
+      </c>
+      <c r="E774">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A775" t="s">
+        <v>42</v>
+      </c>
+      <c r="B775" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C775" t="s">
+        <v>20</v>
+      </c>
+      <c r="D775" t="s">
+        <v>35</v>
+      </c>
+      <c r="E775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A776" t="s">
+        <v>42</v>
+      </c>
+      <c r="B776" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C776" t="s">
+        <v>39</v>
+      </c>
+      <c r="D776" t="s">
+        <v>35</v>
+      </c>
+      <c r="E776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A777" t="s">
+        <v>42</v>
+      </c>
+      <c r="B777" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C777" t="s">
+        <v>22</v>
+      </c>
+      <c r="D777" t="s">
+        <v>35</v>
+      </c>
+      <c r="E777">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A778" t="s">
+        <v>42</v>
+      </c>
+      <c r="B778" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C778" t="s">
+        <v>23</v>
+      </c>
+      <c r="D778" t="s">
+        <v>35</v>
+      </c>
+      <c r="E778">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A779" t="s">
+        <v>42</v>
+      </c>
+      <c r="B779" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C779" t="s">
+        <v>15</v>
+      </c>
+      <c r="D779" t="s">
+        <v>35</v>
+      </c>
+      <c r="E779">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A780" t="s">
+        <v>42</v>
+      </c>
+      <c r="B780" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C780" t="s">
+        <v>8</v>
+      </c>
+      <c r="D780" t="s">
+        <v>31</v>
+      </c>
+      <c r="E780">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A781" t="s">
+        <v>42</v>
+      </c>
+      <c r="B781" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C781" t="s">
+        <v>9</v>
+      </c>
+      <c r="D781" t="s">
+        <v>31</v>
+      </c>
+      <c r="E781">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A782" t="s">
+        <v>42</v>
+      </c>
+      <c r="B782" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C782" t="s">
+        <v>6</v>
+      </c>
+      <c r="D782" t="s">
+        <v>31</v>
+      </c>
+      <c r="E782">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A783" t="s">
+        <v>42</v>
+      </c>
+      <c r="B783" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C783" t="s">
+        <v>10</v>
+      </c>
+      <c r="D783" t="s">
+        <v>31</v>
+      </c>
+      <c r="E783">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A784" t="s">
+        <v>42</v>
+      </c>
+      <c r="B784" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C784" t="s">
+        <v>17</v>
+      </c>
+      <c r="D784" t="s">
+        <v>31</v>
+      </c>
+      <c r="E784">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A785" t="s">
+        <v>42</v>
+      </c>
+      <c r="B785" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C785" t="s">
+        <v>18</v>
+      </c>
+      <c r="D785" t="s">
+        <v>31</v>
+      </c>
+      <c r="E785">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A786" t="s">
+        <v>42</v>
+      </c>
+      <c r="B786" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C786" t="s">
+        <v>19</v>
+      </c>
+      <c r="D786" t="s">
+        <v>31</v>
+      </c>
+      <c r="E786">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A787" t="s">
+        <v>42</v>
+      </c>
+      <c r="B787" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C787" t="s">
+        <v>20</v>
+      </c>
+      <c r="D787" t="s">
+        <v>31</v>
+      </c>
+      <c r="E787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A788" t="s">
+        <v>42</v>
+      </c>
+      <c r="B788" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C788" t="s">
+        <v>39</v>
+      </c>
+      <c r="D788" t="s">
+        <v>31</v>
+      </c>
+      <c r="E788">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A789" t="s">
+        <v>42</v>
+      </c>
+      <c r="B789" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C789" t="s">
+        <v>22</v>
+      </c>
+      <c r="D789" t="s">
+        <v>31</v>
+      </c>
+      <c r="E789">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A790" t="s">
+        <v>42</v>
+      </c>
+      <c r="B790" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C790" t="s">
+        <v>23</v>
+      </c>
+      <c r="D790" t="s">
+        <v>31</v>
+      </c>
+      <c r="E790">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A791" t="s">
+        <v>42</v>
+      </c>
+      <c r="B791" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C791" t="s">
+        <v>15</v>
+      </c>
+      <c r="D791" t="s">
+        <v>31</v>
+      </c>
+      <c r="E791">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A792" t="s">
+        <v>42</v>
+      </c>
+      <c r="B792" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C792" t="s">
+        <v>8</v>
+      </c>
+      <c r="D792" t="s">
+        <v>30</v>
+      </c>
+      <c r="E792">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A793" t="s">
+        <v>42</v>
+      </c>
+      <c r="B793" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C793" t="s">
+        <v>9</v>
+      </c>
+      <c r="D793" t="s">
+        <v>30</v>
+      </c>
+      <c r="E793">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A794" t="s">
+        <v>42</v>
+      </c>
+      <c r="B794" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C794" t="s">
+        <v>6</v>
+      </c>
+      <c r="D794" t="s">
+        <v>30</v>
+      </c>
+      <c r="E794">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A795" t="s">
+        <v>42</v>
+      </c>
+      <c r="B795" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C795" t="s">
+        <v>10</v>
+      </c>
+      <c r="D795" t="s">
+        <v>30</v>
+      </c>
+      <c r="E795">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A796" t="s">
+        <v>42</v>
+      </c>
+      <c r="B796" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C796" t="s">
+        <v>17</v>
+      </c>
+      <c r="D796" t="s">
+        <v>30</v>
+      </c>
+      <c r="E796">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A797" t="s">
+        <v>42</v>
+      </c>
+      <c r="B797" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C797" t="s">
+        <v>18</v>
+      </c>
+      <c r="D797" t="s">
+        <v>30</v>
+      </c>
+      <c r="E797">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A798" t="s">
+        <v>42</v>
+      </c>
+      <c r="B798" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C798" t="s">
+        <v>19</v>
+      </c>
+      <c r="D798" t="s">
+        <v>30</v>
+      </c>
+      <c r="E798">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A799" t="s">
+        <v>42</v>
+      </c>
+      <c r="B799" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C799" t="s">
+        <v>20</v>
+      </c>
+      <c r="D799" t="s">
+        <v>30</v>
+      </c>
+      <c r="E799">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A800" t="s">
+        <v>42</v>
+      </c>
+      <c r="B800" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C800" t="s">
+        <v>39</v>
+      </c>
+      <c r="D800" t="s">
+        <v>30</v>
+      </c>
+      <c r="E800">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A801" t="s">
+        <v>42</v>
+      </c>
+      <c r="B801" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C801" t="s">
+        <v>22</v>
+      </c>
+      <c r="D801" t="s">
+        <v>30</v>
+      </c>
+      <c r="E801">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A802" t="s">
+        <v>42</v>
+      </c>
+      <c r="B802" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C802" t="s">
+        <v>23</v>
+      </c>
+      <c r="D802" t="s">
+        <v>30</v>
+      </c>
+      <c r="E802">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A803" t="s">
+        <v>42</v>
+      </c>
+      <c r="B803" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C803" t="s">
+        <v>15</v>
+      </c>
+      <c r="D803" t="s">
+        <v>30</v>
+      </c>
+      <c r="E803">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A804" t="s">
+        <v>42</v>
+      </c>
+      <c r="B804" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C804" t="s">
+        <v>8</v>
+      </c>
+      <c r="D804" t="s">
+        <v>32</v>
+      </c>
+      <c r="E804">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A805" t="s">
+        <v>42</v>
+      </c>
+      <c r="B805" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C805" t="s">
+        <v>9</v>
+      </c>
+      <c r="D805" t="s">
+        <v>32</v>
+      </c>
+      <c r="E805">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A806" t="s">
+        <v>42</v>
+      </c>
+      <c r="B806" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C806" t="s">
+        <v>6</v>
+      </c>
+      <c r="D806" t="s">
+        <v>32</v>
+      </c>
+      <c r="E806">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A807" t="s">
+        <v>42</v>
+      </c>
+      <c r="B807" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C807" t="s">
+        <v>10</v>
+      </c>
+      <c r="D807" t="s">
+        <v>32</v>
+      </c>
+      <c r="E807">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A808" t="s">
+        <v>42</v>
+      </c>
+      <c r="B808" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C808" t="s">
+        <v>17</v>
+      </c>
+      <c r="D808" t="s">
+        <v>32</v>
+      </c>
+      <c r="E808">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A809" t="s">
+        <v>42</v>
+      </c>
+      <c r="B809" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C809" t="s">
+        <v>18</v>
+      </c>
+      <c r="D809" t="s">
+        <v>32</v>
+      </c>
+      <c r="E809">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A810" t="s">
+        <v>42</v>
+      </c>
+      <c r="B810" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C810" t="s">
+        <v>19</v>
+      </c>
+      <c r="D810" t="s">
+        <v>32</v>
+      </c>
+      <c r="E810">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A811" t="s">
+        <v>42</v>
+      </c>
+      <c r="B811" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C811" t="s">
+        <v>20</v>
+      </c>
+      <c r="D811" t="s">
+        <v>32</v>
+      </c>
+      <c r="E811">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A812" t="s">
+        <v>42</v>
+      </c>
+      <c r="B812" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C812" t="s">
+        <v>39</v>
+      </c>
+      <c r="D812" t="s">
+        <v>32</v>
+      </c>
+      <c r="E812">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A813" t="s">
+        <v>42</v>
+      </c>
+      <c r="B813" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C813" t="s">
+        <v>22</v>
+      </c>
+      <c r="D813" t="s">
+        <v>32</v>
+      </c>
+      <c r="E813">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A814" t="s">
+        <v>42</v>
+      </c>
+      <c r="B814" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C814" t="s">
+        <v>23</v>
+      </c>
+      <c r="D814" t="s">
+        <v>32</v>
+      </c>
+      <c r="E814">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A815" t="s">
+        <v>42</v>
+      </c>
+      <c r="B815" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C815" t="s">
+        <v>15</v>
+      </c>
+      <c r="D815" t="s">
+        <v>32</v>
+      </c>
+      <c r="E815">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A816" t="s">
+        <v>42</v>
+      </c>
+      <c r="B816" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C816" t="s">
+        <v>8</v>
+      </c>
+      <c r="D816" t="s">
+        <v>40</v>
+      </c>
+      <c r="E816">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A817" t="s">
+        <v>42</v>
+      </c>
+      <c r="B817" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C817" t="s">
+        <v>9</v>
+      </c>
+      <c r="D817" t="s">
+        <v>40</v>
+      </c>
+      <c r="E817">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A818" t="s">
+        <v>42</v>
+      </c>
+      <c r="B818" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C818" t="s">
+        <v>6</v>
+      </c>
+      <c r="D818" t="s">
+        <v>40</v>
+      </c>
+      <c r="E818">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A819" t="s">
+        <v>42</v>
+      </c>
+      <c r="B819" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C819" t="s">
+        <v>10</v>
+      </c>
+      <c r="D819" t="s">
+        <v>40</v>
+      </c>
+      <c r="E819">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A820" t="s">
+        <v>42</v>
+      </c>
+      <c r="B820" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C820" t="s">
+        <v>17</v>
+      </c>
+      <c r="D820" t="s">
+        <v>40</v>
+      </c>
+      <c r="E820">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A821" t="s">
+        <v>42</v>
+      </c>
+      <c r="B821" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C821" t="s">
+        <v>18</v>
+      </c>
+      <c r="D821" t="s">
+        <v>40</v>
+      </c>
+      <c r="E821">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A822" t="s">
+        <v>42</v>
+      </c>
+      <c r="B822" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C822" t="s">
+        <v>19</v>
+      </c>
+      <c r="D822" t="s">
+        <v>40</v>
+      </c>
+      <c r="E822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A823" t="s">
+        <v>42</v>
+      </c>
+      <c r="B823" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C823" t="s">
+        <v>20</v>
+      </c>
+      <c r="D823" t="s">
+        <v>40</v>
+      </c>
+      <c r="E823">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A824" t="s">
+        <v>42</v>
+      </c>
+      <c r="B824" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C824" t="s">
+        <v>39</v>
+      </c>
+      <c r="D824" t="s">
+        <v>40</v>
+      </c>
+      <c r="E824">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A825" t="s">
+        <v>42</v>
+      </c>
+      <c r="B825" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C825" t="s">
+        <v>22</v>
+      </c>
+      <c r="D825" t="s">
+        <v>40</v>
+      </c>
+      <c r="E825">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A826" t="s">
+        <v>42</v>
+      </c>
+      <c r="B826" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C826" t="s">
+        <v>23</v>
+      </c>
+      <c r="D826" t="s">
+        <v>40</v>
+      </c>
+      <c r="E826">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A827" t="s">
+        <v>42</v>
+      </c>
+      <c r="B827" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C827" t="s">
+        <v>15</v>
+      </c>
+      <c r="D827" t="s">
+        <v>40</v>
+      </c>
+      <c r="E827">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A828" t="s">
+        <v>42</v>
+      </c>
+      <c r="B828" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C828" t="s">
+        <v>8</v>
+      </c>
+      <c r="D828" t="s">
+        <v>29</v>
+      </c>
+      <c r="E828">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A829" t="s">
+        <v>42</v>
+      </c>
+      <c r="B829" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C829" t="s">
+        <v>9</v>
+      </c>
+      <c r="D829" t="s">
+        <v>29</v>
+      </c>
+      <c r="E829">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A830" t="s">
+        <v>42</v>
+      </c>
+      <c r="B830" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C830" t="s">
+        <v>6</v>
+      </c>
+      <c r="D830" t="s">
+        <v>29</v>
+      </c>
+      <c r="E830">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A831" t="s">
+        <v>42</v>
+      </c>
+      <c r="B831" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C831" t="s">
+        <v>10</v>
+      </c>
+      <c r="D831" t="s">
+        <v>29</v>
+      </c>
+      <c r="E831">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A832" t="s">
+        <v>42</v>
+      </c>
+      <c r="B832" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C832" t="s">
+        <v>17</v>
+      </c>
+      <c r="D832" t="s">
+        <v>29</v>
+      </c>
+      <c r="E832">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A833" t="s">
+        <v>42</v>
+      </c>
+      <c r="B833" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C833" t="s">
+        <v>18</v>
+      </c>
+      <c r="D833" t="s">
+        <v>29</v>
+      </c>
+      <c r="E833">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A834" t="s">
+        <v>42</v>
+      </c>
+      <c r="B834" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C834" t="s">
+        <v>19</v>
+      </c>
+      <c r="D834" t="s">
+        <v>29</v>
+      </c>
+      <c r="E834">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A835" t="s">
+        <v>42</v>
+      </c>
+      <c r="B835" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C835" t="s">
+        <v>20</v>
+      </c>
+      <c r="D835" t="s">
+        <v>29</v>
+      </c>
+      <c r="E835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A836" t="s">
+        <v>42</v>
+      </c>
+      <c r="B836" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C836" t="s">
+        <v>39</v>
+      </c>
+      <c r="D836" t="s">
+        <v>29</v>
+      </c>
+      <c r="E836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A837" t="s">
+        <v>42</v>
+      </c>
+      <c r="B837" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C837" t="s">
+        <v>22</v>
+      </c>
+      <c r="D837" t="s">
+        <v>29</v>
+      </c>
+      <c r="E837">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A838" t="s">
+        <v>42</v>
+      </c>
+      <c r="B838" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C838" t="s">
+        <v>23</v>
+      </c>
+      <c r="D838" t="s">
+        <v>29</v>
+      </c>
+      <c r="E838">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A839" t="s">
+        <v>42</v>
+      </c>
+      <c r="B839" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C839" t="s">
+        <v>15</v>
+      </c>
+      <c r="D839" t="s">
+        <v>29</v>
+      </c>
+      <c r="E839">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A840" t="s">
+        <v>42</v>
+      </c>
+      <c r="B840" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C840" t="s">
+        <v>8</v>
+      </c>
+      <c r="D840" t="s">
+        <v>28</v>
+      </c>
+      <c r="E840">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A841" t="s">
+        <v>42</v>
+      </c>
+      <c r="B841" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C841" t="s">
+        <v>9</v>
+      </c>
+      <c r="D841" t="s">
+        <v>28</v>
+      </c>
+      <c r="E841">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A842" t="s">
+        <v>42</v>
+      </c>
+      <c r="B842" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C842" t="s">
+        <v>6</v>
+      </c>
+      <c r="D842" t="s">
+        <v>28</v>
+      </c>
+      <c r="E842">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A843" t="s">
+        <v>42</v>
+      </c>
+      <c r="B843" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C843" t="s">
+        <v>10</v>
+      </c>
+      <c r="D843" t="s">
+        <v>28</v>
+      </c>
+      <c r="E843">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A844" t="s">
+        <v>42</v>
+      </c>
+      <c r="B844" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C844" t="s">
+        <v>17</v>
+      </c>
+      <c r="D844" t="s">
+        <v>28</v>
+      </c>
+      <c r="E844">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A845" t="s">
+        <v>42</v>
+      </c>
+      <c r="B845" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C845" t="s">
+        <v>18</v>
+      </c>
+      <c r="D845" t="s">
+        <v>28</v>
+      </c>
+      <c r="E845">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A846" t="s">
+        <v>42</v>
+      </c>
+      <c r="B846" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C846" t="s">
+        <v>19</v>
+      </c>
+      <c r="D846" t="s">
+        <v>28</v>
+      </c>
+      <c r="E846">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A847" t="s">
+        <v>42</v>
+      </c>
+      <c r="B847" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C847" t="s">
+        <v>20</v>
+      </c>
+      <c r="D847" t="s">
+        <v>28</v>
+      </c>
+      <c r="E847">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A848" t="s">
+        <v>42</v>
+      </c>
+      <c r="B848" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C848" t="s">
+        <v>39</v>
+      </c>
+      <c r="D848" t="s">
+        <v>28</v>
+      </c>
+      <c r="E848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A849" t="s">
+        <v>42</v>
+      </c>
+      <c r="B849" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C849" t="s">
+        <v>22</v>
+      </c>
+      <c r="D849" t="s">
+        <v>28</v>
+      </c>
+      <c r="E849">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A850" t="s">
+        <v>42</v>
+      </c>
+      <c r="B850" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C850" t="s">
+        <v>23</v>
+      </c>
+      <c r="D850" t="s">
+        <v>28</v>
+      </c>
+      <c r="E850">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A851" t="s">
+        <v>42</v>
+      </c>
+      <c r="B851" s="3">
+        <v>45868</v>
+      </c>
+      <c r="C851" t="s">
+        <v>15</v>
+      </c>
+      <c r="D851" t="s">
+        <v>28</v>
+      </c>
+      <c r="E851">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E601" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/encuestas.xlsx
+++ b/encuestas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcalcina\Downloads\r largo\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A30205-B5B4-4F6D-8CB7-AE11E16324C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3503B74B-4662-40D4-902F-4A62C8EDD631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5839EFA-8DEA-4060-B3F2-F6908100608A}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{E5839EFA-8DEA-4060-B3F2-F6908100608A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$601</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$851</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3995" uniqueCount="47">
   <si>
     <t>fuente</t>
   </si>
@@ -169,6 +169,18 @@
   <si>
     <t>Unitel - Ipsos Ciesmori 3</t>
   </si>
+  <si>
+    <t>El Deber - Spie Consulting 3</t>
+  </si>
+  <si>
+    <t>El Deber - Spie Consulting 4</t>
+  </si>
+  <si>
+    <t>Unitel - Ipsos Ciesmori 4</t>
+  </si>
+  <si>
+    <t>Red Uno - Captura Consulting 3</t>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -244,6 +256,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E5B6EA-6F2E-4584-9918-B63E0CE8D433}">
-  <dimension ref="A1:E851"/>
+  <dimension ref="A1:F1331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A720" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C851" sqref="C851"/>
+    <sheetView tabSelected="1" topLeftCell="C1211" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1224" sqref="E1224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,7 +605,7 @@
     <col min="5" max="5" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -626,7 +639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -643,7 +656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -660,7 +673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -677,7 +690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -694,7 +707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -711,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -728,7 +741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -745,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -762,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -779,7 +792,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -796,7 +809,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="E13">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -830,7 +844,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -847,7 +861,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -864,7 +878,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -881,7 +895,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -898,7 +912,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -915,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -932,7 +946,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -949,7 +963,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -966,7 +980,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -983,7 +997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1000,7 +1014,7 @@
         <v>24.02</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1017,7 +1031,7 @@
         <v>22.07</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1033,8 +1047,9 @@
       <c r="E26">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1051,7 +1066,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1068,7 +1083,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1085,7 +1100,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1102,7 +1117,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1119,7 +1134,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -6304,7 +6319,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>24</v>
       </c>
@@ -6321,7 +6336,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>24</v>
       </c>
@@ -6338,7 +6353,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>24</v>
       </c>
@@ -6355,7 +6370,7 @@
         <v>31.22</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>24</v>
       </c>
@@ -6372,7 +6387,7 @@
         <v>26.65</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>24</v>
       </c>
@@ -6389,7 +6404,7 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>24</v>
       </c>
@@ -6406,7 +6421,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>24</v>
       </c>
@@ -6423,7 +6438,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>24</v>
       </c>
@@ -6440,7 +6455,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>24</v>
       </c>
@@ -6457,7 +6472,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>24</v>
       </c>
@@ -6474,7 +6489,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>24</v>
       </c>
@@ -6491,7 +6506,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>24</v>
       </c>
@@ -6508,7 +6523,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>24</v>
       </c>
@@ -6525,7 +6540,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>24</v>
       </c>
@@ -6542,7 +6557,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>24</v>
       </c>
@@ -6559,7 +6574,7 @@
         <v>6.44</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>34</v>
       </c>
@@ -6575,6 +6590,7 @@
       <c r="E352">
         <v>13.7</v>
       </c>
+      <c r="F352" s="4"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
@@ -8480,7 +8496,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>34</v>
       </c>
@@ -8497,7 +8513,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>34</v>
       </c>
@@ -8514,7 +8530,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>34</v>
       </c>
@@ -8531,7 +8547,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>34</v>
       </c>
@@ -8548,7 +8564,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>34</v>
       </c>
@@ -8565,7 +8581,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>34</v>
       </c>
@@ -8582,7 +8598,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>34</v>
       </c>
@@ -8599,7 +8615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>37</v>
       </c>
@@ -8616,7 +8632,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>37</v>
       </c>
@@ -8633,7 +8649,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>37</v>
       </c>
@@ -8649,8 +8665,9 @@
       <c r="E474">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F474" s="4"/>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>37</v>
       </c>
@@ -8667,7 +8684,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>37</v>
       </c>
@@ -8684,7 +8701,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>37</v>
       </c>
@@ -8701,7 +8718,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>37</v>
       </c>
@@ -8718,7 +8735,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>37</v>
       </c>
@@ -8735,7 +8752,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>37</v>
       </c>
@@ -10656,7 +10673,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>37</v>
       </c>
@@ -10673,7 +10690,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>37</v>
       </c>
@@ -10690,7 +10707,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>37</v>
       </c>
@@ -10707,7 +10724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>37</v>
       </c>
@@ -10724,7 +10741,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>37</v>
       </c>
@@ -10741,7 +10758,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>37</v>
       </c>
@@ -10758,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>37</v>
       </c>
@@ -10775,7 +10792,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>37</v>
       </c>
@@ -10792,7 +10809,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>37</v>
       </c>
@@ -10809,7 +10826,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>41</v>
       </c>
@@ -10826,7 +10843,7 @@
         <v>21.76</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>41</v>
       </c>
@@ -10843,7 +10860,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>41</v>
       </c>
@@ -10859,8 +10876,9 @@
       <c r="E604">
         <v>8.26</v>
       </c>
-    </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F604" s="4"/>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>41</v>
       </c>
@@ -10877,7 +10895,7 @@
         <v>10.01</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>41</v>
       </c>
@@ -10894,7 +10912,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>41</v>
       </c>
@@ -10911,7 +10929,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>41</v>
       </c>
@@ -12832,7 +12850,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>41</v>
       </c>
@@ -12849,7 +12867,7 @@
         <v>8.59</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>41</v>
       </c>
@@ -12866,7 +12884,7 @@
         <v>11.67</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>41</v>
       </c>
@@ -12883,7 +12901,7 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>41</v>
       </c>
@@ -12900,7 +12918,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>41</v>
       </c>
@@ -12917,7 +12935,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>41</v>
       </c>
@@ -12934,7 +12952,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>41</v>
       </c>
@@ -12951,7 +12969,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>41</v>
       </c>
@@ -12968,7 +12986,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>41</v>
       </c>
@@ -12985,7 +13003,7 @@
         <v>14.27</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>41</v>
       </c>
@@ -13002,7 +13020,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>41</v>
       </c>
@@ -13019,7 +13037,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>42</v>
       </c>
@@ -13036,7 +13054,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>42</v>
       </c>
@@ -13053,7 +13071,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>42</v>
       </c>
@@ -13069,8 +13087,9 @@
       <c r="E734">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F734" s="4"/>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>42</v>
       </c>
@@ -13087,7 +13106,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>42</v>
       </c>
@@ -15059,8 +15078,8168 @@
         <v>5</v>
       </c>
     </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A852" t="s">
+        <v>43</v>
+      </c>
+      <c r="B852" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C852" t="s">
+        <v>8</v>
+      </c>
+      <c r="D852" t="s">
+        <v>7</v>
+      </c>
+      <c r="E852">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A853" t="s">
+        <v>43</v>
+      </c>
+      <c r="B853" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C853" t="s">
+        <v>9</v>
+      </c>
+      <c r="D853" t="s">
+        <v>7</v>
+      </c>
+      <c r="E853">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A854" t="s">
+        <v>43</v>
+      </c>
+      <c r="B854" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C854" t="s">
+        <v>6</v>
+      </c>
+      <c r="D854" t="s">
+        <v>7</v>
+      </c>
+      <c r="E854">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A855" t="s">
+        <v>43</v>
+      </c>
+      <c r="B855" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C855" t="s">
+        <v>10</v>
+      </c>
+      <c r="D855" t="s">
+        <v>7</v>
+      </c>
+      <c r="E855">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A856" t="s">
+        <v>43</v>
+      </c>
+      <c r="B856" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C856" t="s">
+        <v>17</v>
+      </c>
+      <c r="D856" t="s">
+        <v>7</v>
+      </c>
+      <c r="E856">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A857" t="s">
+        <v>43</v>
+      </c>
+      <c r="B857" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C857" t="s">
+        <v>18</v>
+      </c>
+      <c r="D857" t="s">
+        <v>7</v>
+      </c>
+      <c r="E857">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A858" t="s">
+        <v>43</v>
+      </c>
+      <c r="B858" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C858" t="s">
+        <v>19</v>
+      </c>
+      <c r="D858" t="s">
+        <v>7</v>
+      </c>
+      <c r="E858">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A859" t="s">
+        <v>43</v>
+      </c>
+      <c r="B859" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C859" t="s">
+        <v>20</v>
+      </c>
+      <c r="D859" t="s">
+        <v>7</v>
+      </c>
+      <c r="E859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A860" t="s">
+        <v>43</v>
+      </c>
+      <c r="B860" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C860" t="s">
+        <v>39</v>
+      </c>
+      <c r="D860" t="s">
+        <v>7</v>
+      </c>
+      <c r="E860">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A861" t="s">
+        <v>43</v>
+      </c>
+      <c r="B861" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C861" t="s">
+        <v>22</v>
+      </c>
+      <c r="D861" t="s">
+        <v>7</v>
+      </c>
+      <c r="E861">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A862" t="s">
+        <v>43</v>
+      </c>
+      <c r="B862" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C862" t="s">
+        <v>23</v>
+      </c>
+      <c r="D862" t="s">
+        <v>7</v>
+      </c>
+      <c r="E862">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A863" t="s">
+        <v>43</v>
+      </c>
+      <c r="B863" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C863" t="s">
+        <v>15</v>
+      </c>
+      <c r="D863" t="s">
+        <v>7</v>
+      </c>
+      <c r="E863">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A864" t="s">
+        <v>43</v>
+      </c>
+      <c r="B864" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C864" t="s">
+        <v>8</v>
+      </c>
+      <c r="D864" t="s">
+        <v>26</v>
+      </c>
+      <c r="E864">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A865" t="s">
+        <v>43</v>
+      </c>
+      <c r="B865" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C865" t="s">
+        <v>9</v>
+      </c>
+      <c r="D865" t="s">
+        <v>26</v>
+      </c>
+      <c r="E865">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A866" t="s">
+        <v>43</v>
+      </c>
+      <c r="B866" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C866" t="s">
+        <v>6</v>
+      </c>
+      <c r="D866" t="s">
+        <v>26</v>
+      </c>
+      <c r="E866">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A867" t="s">
+        <v>43</v>
+      </c>
+      <c r="B867" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C867" t="s">
+        <v>10</v>
+      </c>
+      <c r="D867" t="s">
+        <v>26</v>
+      </c>
+      <c r="E867">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A868" t="s">
+        <v>43</v>
+      </c>
+      <c r="B868" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C868" t="s">
+        <v>17</v>
+      </c>
+      <c r="D868" t="s">
+        <v>26</v>
+      </c>
+      <c r="E868">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A869" t="s">
+        <v>43</v>
+      </c>
+      <c r="B869" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C869" t="s">
+        <v>18</v>
+      </c>
+      <c r="D869" t="s">
+        <v>26</v>
+      </c>
+      <c r="E869">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A870" t="s">
+        <v>43</v>
+      </c>
+      <c r="B870" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C870" t="s">
+        <v>19</v>
+      </c>
+      <c r="D870" t="s">
+        <v>26</v>
+      </c>
+      <c r="E870">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A871" t="s">
+        <v>43</v>
+      </c>
+      <c r="B871" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C871" t="s">
+        <v>20</v>
+      </c>
+      <c r="D871" t="s">
+        <v>26</v>
+      </c>
+      <c r="E871">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A872" t="s">
+        <v>43</v>
+      </c>
+      <c r="B872" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C872" t="s">
+        <v>39</v>
+      </c>
+      <c r="D872" t="s">
+        <v>26</v>
+      </c>
+      <c r="E872">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A873" t="s">
+        <v>43</v>
+      </c>
+      <c r="B873" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C873" t="s">
+        <v>22</v>
+      </c>
+      <c r="D873" t="s">
+        <v>26</v>
+      </c>
+      <c r="E873">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A874" t="s">
+        <v>43</v>
+      </c>
+      <c r="B874" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C874" t="s">
+        <v>23</v>
+      </c>
+      <c r="D874" t="s">
+        <v>26</v>
+      </c>
+      <c r="E874">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A875" t="s">
+        <v>43</v>
+      </c>
+      <c r="B875" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C875" t="s">
+        <v>15</v>
+      </c>
+      <c r="D875" t="s">
+        <v>26</v>
+      </c>
+      <c r="E875">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A876" t="s">
+        <v>43</v>
+      </c>
+      <c r="B876" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C876" t="s">
+        <v>8</v>
+      </c>
+      <c r="D876" t="s">
+        <v>25</v>
+      </c>
+      <c r="E876">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A877" t="s">
+        <v>43</v>
+      </c>
+      <c r="B877" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C877" t="s">
+        <v>9</v>
+      </c>
+      <c r="D877" t="s">
+        <v>25</v>
+      </c>
+      <c r="E877">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A878" t="s">
+        <v>43</v>
+      </c>
+      <c r="B878" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C878" t="s">
+        <v>6</v>
+      </c>
+      <c r="D878" t="s">
+        <v>25</v>
+      </c>
+      <c r="E878">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A879" t="s">
+        <v>43</v>
+      </c>
+      <c r="B879" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C879" t="s">
+        <v>10</v>
+      </c>
+      <c r="D879" t="s">
+        <v>25</v>
+      </c>
+      <c r="E879">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A880" t="s">
+        <v>43</v>
+      </c>
+      <c r="B880" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C880" t="s">
+        <v>17</v>
+      </c>
+      <c r="D880" t="s">
+        <v>25</v>
+      </c>
+      <c r="E880">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A881" t="s">
+        <v>43</v>
+      </c>
+      <c r="B881" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C881" t="s">
+        <v>18</v>
+      </c>
+      <c r="D881" t="s">
+        <v>25</v>
+      </c>
+      <c r="E881">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A882" t="s">
+        <v>43</v>
+      </c>
+      <c r="B882" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C882" t="s">
+        <v>19</v>
+      </c>
+      <c r="D882" t="s">
+        <v>25</v>
+      </c>
+      <c r="E882">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A883" t="s">
+        <v>43</v>
+      </c>
+      <c r="B883" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C883" t="s">
+        <v>20</v>
+      </c>
+      <c r="D883" t="s">
+        <v>25</v>
+      </c>
+      <c r="E883">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A884" t="s">
+        <v>43</v>
+      </c>
+      <c r="B884" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C884" t="s">
+        <v>39</v>
+      </c>
+      <c r="D884" t="s">
+        <v>25</v>
+      </c>
+      <c r="E884">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A885" t="s">
+        <v>43</v>
+      </c>
+      <c r="B885" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C885" t="s">
+        <v>22</v>
+      </c>
+      <c r="D885" t="s">
+        <v>25</v>
+      </c>
+      <c r="E885">
+        <v>20.03</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A886" t="s">
+        <v>43</v>
+      </c>
+      <c r="B886" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C886" t="s">
+        <v>23</v>
+      </c>
+      <c r="D886" t="s">
+        <v>25</v>
+      </c>
+      <c r="E886">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A887" t="s">
+        <v>43</v>
+      </c>
+      <c r="B887" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C887" t="s">
+        <v>15</v>
+      </c>
+      <c r="D887" t="s">
+        <v>25</v>
+      </c>
+      <c r="E887">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A888" t="s">
+        <v>43</v>
+      </c>
+      <c r="B888" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C888" t="s">
+        <v>8</v>
+      </c>
+      <c r="D888" t="s">
+        <v>35</v>
+      </c>
+      <c r="E888">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A889" t="s">
+        <v>43</v>
+      </c>
+      <c r="B889" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C889" t="s">
+        <v>9</v>
+      </c>
+      <c r="D889" t="s">
+        <v>35</v>
+      </c>
+      <c r="E889">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A890" t="s">
+        <v>43</v>
+      </c>
+      <c r="B890" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C890" t="s">
+        <v>6</v>
+      </c>
+      <c r="D890" t="s">
+        <v>35</v>
+      </c>
+      <c r="E890">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A891" t="s">
+        <v>43</v>
+      </c>
+      <c r="B891" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C891" t="s">
+        <v>10</v>
+      </c>
+      <c r="D891" t="s">
+        <v>35</v>
+      </c>
+      <c r="E891">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A892" t="s">
+        <v>43</v>
+      </c>
+      <c r="B892" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C892" t="s">
+        <v>17</v>
+      </c>
+      <c r="D892" t="s">
+        <v>35</v>
+      </c>
+      <c r="E892">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A893" t="s">
+        <v>43</v>
+      </c>
+      <c r="B893" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C893" t="s">
+        <v>18</v>
+      </c>
+      <c r="D893" t="s">
+        <v>35</v>
+      </c>
+      <c r="E893">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A894" t="s">
+        <v>43</v>
+      </c>
+      <c r="B894" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C894" t="s">
+        <v>19</v>
+      </c>
+      <c r="D894" t="s">
+        <v>35</v>
+      </c>
+      <c r="E894">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A895" t="s">
+        <v>43</v>
+      </c>
+      <c r="B895" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C895" t="s">
+        <v>20</v>
+      </c>
+      <c r="D895" t="s">
+        <v>35</v>
+      </c>
+      <c r="E895">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A896" t="s">
+        <v>43</v>
+      </c>
+      <c r="B896" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C896" t="s">
+        <v>39</v>
+      </c>
+      <c r="D896" t="s">
+        <v>35</v>
+      </c>
+      <c r="E896">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A897" t="s">
+        <v>43</v>
+      </c>
+      <c r="B897" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C897" t="s">
+        <v>22</v>
+      </c>
+      <c r="D897" t="s">
+        <v>35</v>
+      </c>
+      <c r="E897">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A898" t="s">
+        <v>43</v>
+      </c>
+      <c r="B898" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C898" t="s">
+        <v>23</v>
+      </c>
+      <c r="D898" t="s">
+        <v>35</v>
+      </c>
+      <c r="E898">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A899" t="s">
+        <v>43</v>
+      </c>
+      <c r="B899" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C899" t="s">
+        <v>15</v>
+      </c>
+      <c r="D899" t="s">
+        <v>35</v>
+      </c>
+      <c r="E899">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A900" t="s">
+        <v>43</v>
+      </c>
+      <c r="B900" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C900" t="s">
+        <v>8</v>
+      </c>
+      <c r="D900" t="s">
+        <v>32</v>
+      </c>
+      <c r="E900">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A901" t="s">
+        <v>43</v>
+      </c>
+      <c r="B901" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C901" t="s">
+        <v>9</v>
+      </c>
+      <c r="D901" t="s">
+        <v>32</v>
+      </c>
+      <c r="E901">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A902" t="s">
+        <v>43</v>
+      </c>
+      <c r="B902" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C902" t="s">
+        <v>6</v>
+      </c>
+      <c r="D902" t="s">
+        <v>32</v>
+      </c>
+      <c r="E902">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A903" t="s">
+        <v>43</v>
+      </c>
+      <c r="B903" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C903" t="s">
+        <v>10</v>
+      </c>
+      <c r="D903" t="s">
+        <v>32</v>
+      </c>
+      <c r="E903">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A904" t="s">
+        <v>43</v>
+      </c>
+      <c r="B904" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C904" t="s">
+        <v>17</v>
+      </c>
+      <c r="D904" t="s">
+        <v>32</v>
+      </c>
+      <c r="E904">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A905" t="s">
+        <v>43</v>
+      </c>
+      <c r="B905" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C905" t="s">
+        <v>18</v>
+      </c>
+      <c r="D905" t="s">
+        <v>32</v>
+      </c>
+      <c r="E905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A906" t="s">
+        <v>43</v>
+      </c>
+      <c r="B906" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C906" t="s">
+        <v>19</v>
+      </c>
+      <c r="D906" t="s">
+        <v>32</v>
+      </c>
+      <c r="E906">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A907" t="s">
+        <v>43</v>
+      </c>
+      <c r="B907" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C907" t="s">
+        <v>20</v>
+      </c>
+      <c r="D907" t="s">
+        <v>32</v>
+      </c>
+      <c r="E907">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A908" t="s">
+        <v>43</v>
+      </c>
+      <c r="B908" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C908" t="s">
+        <v>39</v>
+      </c>
+      <c r="D908" t="s">
+        <v>32</v>
+      </c>
+      <c r="E908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A909" t="s">
+        <v>43</v>
+      </c>
+      <c r="B909" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C909" t="s">
+        <v>22</v>
+      </c>
+      <c r="D909" t="s">
+        <v>32</v>
+      </c>
+      <c r="E909">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A910" t="s">
+        <v>43</v>
+      </c>
+      <c r="B910" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C910" t="s">
+        <v>23</v>
+      </c>
+      <c r="D910" t="s">
+        <v>32</v>
+      </c>
+      <c r="E910">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A911" t="s">
+        <v>43</v>
+      </c>
+      <c r="B911" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C911" t="s">
+        <v>15</v>
+      </c>
+      <c r="D911" t="s">
+        <v>32</v>
+      </c>
+      <c r="E911">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A912" t="s">
+        <v>43</v>
+      </c>
+      <c r="B912" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C912" t="s">
+        <v>8</v>
+      </c>
+      <c r="D912" t="s">
+        <v>33</v>
+      </c>
+      <c r="E912">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A913" t="s">
+        <v>43</v>
+      </c>
+      <c r="B913" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C913" t="s">
+        <v>9</v>
+      </c>
+      <c r="D913" t="s">
+        <v>33</v>
+      </c>
+      <c r="E913">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A914" t="s">
+        <v>43</v>
+      </c>
+      <c r="B914" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C914" t="s">
+        <v>6</v>
+      </c>
+      <c r="D914" t="s">
+        <v>33</v>
+      </c>
+      <c r="E914">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A915" t="s">
+        <v>43</v>
+      </c>
+      <c r="B915" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C915" t="s">
+        <v>10</v>
+      </c>
+      <c r="D915" t="s">
+        <v>33</v>
+      </c>
+      <c r="E915">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A916" t="s">
+        <v>43</v>
+      </c>
+      <c r="B916" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C916" t="s">
+        <v>17</v>
+      </c>
+      <c r="D916" t="s">
+        <v>33</v>
+      </c>
+      <c r="E916">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A917" t="s">
+        <v>43</v>
+      </c>
+      <c r="B917" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C917" t="s">
+        <v>18</v>
+      </c>
+      <c r="D917" t="s">
+        <v>33</v>
+      </c>
+      <c r="E917">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A918" t="s">
+        <v>43</v>
+      </c>
+      <c r="B918" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C918" t="s">
+        <v>19</v>
+      </c>
+      <c r="D918" t="s">
+        <v>33</v>
+      </c>
+      <c r="E918">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A919" t="s">
+        <v>43</v>
+      </c>
+      <c r="B919" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C919" t="s">
+        <v>20</v>
+      </c>
+      <c r="D919" t="s">
+        <v>33</v>
+      </c>
+      <c r="E919">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A920" t="s">
+        <v>43</v>
+      </c>
+      <c r="B920" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C920" t="s">
+        <v>39</v>
+      </c>
+      <c r="D920" t="s">
+        <v>33</v>
+      </c>
+      <c r="E920">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A921" t="s">
+        <v>43</v>
+      </c>
+      <c r="B921" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C921" t="s">
+        <v>22</v>
+      </c>
+      <c r="D921" t="s">
+        <v>33</v>
+      </c>
+      <c r="E921">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A922" t="s">
+        <v>43</v>
+      </c>
+      <c r="B922" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C922" t="s">
+        <v>23</v>
+      </c>
+      <c r="D922" t="s">
+        <v>33</v>
+      </c>
+      <c r="E922">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A923" t="s">
+        <v>43</v>
+      </c>
+      <c r="B923" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C923" t="s">
+        <v>15</v>
+      </c>
+      <c r="D923" t="s">
+        <v>33</v>
+      </c>
+      <c r="E923">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A924" t="s">
+        <v>43</v>
+      </c>
+      <c r="B924" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C924" t="s">
+        <v>8</v>
+      </c>
+      <c r="D924" t="s">
+        <v>28</v>
+      </c>
+      <c r="E924">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A925" t="s">
+        <v>43</v>
+      </c>
+      <c r="B925" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C925" t="s">
+        <v>9</v>
+      </c>
+      <c r="D925" t="s">
+        <v>28</v>
+      </c>
+      <c r="E925">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A926" t="s">
+        <v>43</v>
+      </c>
+      <c r="B926" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C926" t="s">
+        <v>6</v>
+      </c>
+      <c r="D926" t="s">
+        <v>28</v>
+      </c>
+      <c r="E926">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A927" t="s">
+        <v>43</v>
+      </c>
+      <c r="B927" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C927" t="s">
+        <v>10</v>
+      </c>
+      <c r="D927" t="s">
+        <v>28</v>
+      </c>
+      <c r="E927">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A928" t="s">
+        <v>43</v>
+      </c>
+      <c r="B928" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C928" t="s">
+        <v>17</v>
+      </c>
+      <c r="D928" t="s">
+        <v>28</v>
+      </c>
+      <c r="E928">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A929" t="s">
+        <v>43</v>
+      </c>
+      <c r="B929" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C929" t="s">
+        <v>18</v>
+      </c>
+      <c r="D929" t="s">
+        <v>28</v>
+      </c>
+      <c r="E929">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A930" t="s">
+        <v>43</v>
+      </c>
+      <c r="B930" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C930" t="s">
+        <v>19</v>
+      </c>
+      <c r="D930" t="s">
+        <v>28</v>
+      </c>
+      <c r="E930">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A931" t="s">
+        <v>43</v>
+      </c>
+      <c r="B931" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C931" t="s">
+        <v>20</v>
+      </c>
+      <c r="D931" t="s">
+        <v>28</v>
+      </c>
+      <c r="E931">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A932" t="s">
+        <v>43</v>
+      </c>
+      <c r="B932" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C932" t="s">
+        <v>39</v>
+      </c>
+      <c r="D932" t="s">
+        <v>28</v>
+      </c>
+      <c r="E932">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A933" t="s">
+        <v>43</v>
+      </c>
+      <c r="B933" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C933" t="s">
+        <v>22</v>
+      </c>
+      <c r="D933" t="s">
+        <v>28</v>
+      </c>
+      <c r="E933">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A934" t="s">
+        <v>43</v>
+      </c>
+      <c r="B934" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C934" t="s">
+        <v>23</v>
+      </c>
+      <c r="D934" t="s">
+        <v>28</v>
+      </c>
+      <c r="E934">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A935" t="s">
+        <v>43</v>
+      </c>
+      <c r="B935" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C935" t="s">
+        <v>15</v>
+      </c>
+      <c r="D935" t="s">
+        <v>28</v>
+      </c>
+      <c r="E935">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A936" t="s">
+        <v>43</v>
+      </c>
+      <c r="B936" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C936" t="s">
+        <v>8</v>
+      </c>
+      <c r="D936" t="s">
+        <v>29</v>
+      </c>
+      <c r="E936">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A937" t="s">
+        <v>43</v>
+      </c>
+      <c r="B937" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C937" t="s">
+        <v>9</v>
+      </c>
+      <c r="D937" t="s">
+        <v>29</v>
+      </c>
+      <c r="E937">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A938" t="s">
+        <v>43</v>
+      </c>
+      <c r="B938" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C938" t="s">
+        <v>6</v>
+      </c>
+      <c r="D938" t="s">
+        <v>29</v>
+      </c>
+      <c r="E938">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A939" t="s">
+        <v>43</v>
+      </c>
+      <c r="B939" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C939" t="s">
+        <v>10</v>
+      </c>
+      <c r="D939" t="s">
+        <v>29</v>
+      </c>
+      <c r="E939">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A940" t="s">
+        <v>43</v>
+      </c>
+      <c r="B940" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C940" t="s">
+        <v>17</v>
+      </c>
+      <c r="D940" t="s">
+        <v>29</v>
+      </c>
+      <c r="E940">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A941" t="s">
+        <v>43</v>
+      </c>
+      <c r="B941" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C941" t="s">
+        <v>18</v>
+      </c>
+      <c r="D941" t="s">
+        <v>29</v>
+      </c>
+      <c r="E941">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A942" t="s">
+        <v>43</v>
+      </c>
+      <c r="B942" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C942" t="s">
+        <v>19</v>
+      </c>
+      <c r="D942" t="s">
+        <v>29</v>
+      </c>
+      <c r="E942">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A943" t="s">
+        <v>43</v>
+      </c>
+      <c r="B943" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C943" t="s">
+        <v>20</v>
+      </c>
+      <c r="D943" t="s">
+        <v>29</v>
+      </c>
+      <c r="E943">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A944" t="s">
+        <v>43</v>
+      </c>
+      <c r="B944" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C944" t="s">
+        <v>39</v>
+      </c>
+      <c r="D944" t="s">
+        <v>29</v>
+      </c>
+      <c r="E944">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A945" t="s">
+        <v>43</v>
+      </c>
+      <c r="B945" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C945" t="s">
+        <v>22</v>
+      </c>
+      <c r="D945" t="s">
+        <v>29</v>
+      </c>
+      <c r="E945">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A946" t="s">
+        <v>43</v>
+      </c>
+      <c r="B946" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C946" t="s">
+        <v>23</v>
+      </c>
+      <c r="D946" t="s">
+        <v>29</v>
+      </c>
+      <c r="E946">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A947" t="s">
+        <v>43</v>
+      </c>
+      <c r="B947" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C947" t="s">
+        <v>15</v>
+      </c>
+      <c r="D947" t="s">
+        <v>29</v>
+      </c>
+      <c r="E947">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A948" t="s">
+        <v>43</v>
+      </c>
+      <c r="B948" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C948" t="s">
+        <v>8</v>
+      </c>
+      <c r="D948" t="s">
+        <v>30</v>
+      </c>
+      <c r="E948">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A949" t="s">
+        <v>43</v>
+      </c>
+      <c r="B949" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C949" t="s">
+        <v>9</v>
+      </c>
+      <c r="D949" t="s">
+        <v>30</v>
+      </c>
+      <c r="E949">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A950" t="s">
+        <v>43</v>
+      </c>
+      <c r="B950" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C950" t="s">
+        <v>6</v>
+      </c>
+      <c r="D950" t="s">
+        <v>30</v>
+      </c>
+      <c r="E950">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A951" t="s">
+        <v>43</v>
+      </c>
+      <c r="B951" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C951" t="s">
+        <v>10</v>
+      </c>
+      <c r="D951" t="s">
+        <v>30</v>
+      </c>
+      <c r="E951">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A952" t="s">
+        <v>43</v>
+      </c>
+      <c r="B952" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C952" t="s">
+        <v>17</v>
+      </c>
+      <c r="D952" t="s">
+        <v>30</v>
+      </c>
+      <c r="E952">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A953" t="s">
+        <v>43</v>
+      </c>
+      <c r="B953" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C953" t="s">
+        <v>18</v>
+      </c>
+      <c r="D953" t="s">
+        <v>30</v>
+      </c>
+      <c r="E953">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A954" t="s">
+        <v>43</v>
+      </c>
+      <c r="B954" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C954" t="s">
+        <v>19</v>
+      </c>
+      <c r="D954" t="s">
+        <v>30</v>
+      </c>
+      <c r="E954">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A955" t="s">
+        <v>43</v>
+      </c>
+      <c r="B955" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C955" t="s">
+        <v>20</v>
+      </c>
+      <c r="D955" t="s">
+        <v>30</v>
+      </c>
+      <c r="E955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A956" t="s">
+        <v>43</v>
+      </c>
+      <c r="B956" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C956" t="s">
+        <v>39</v>
+      </c>
+      <c r="D956" t="s">
+        <v>30</v>
+      </c>
+      <c r="E956">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A957" t="s">
+        <v>43</v>
+      </c>
+      <c r="B957" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C957" t="s">
+        <v>22</v>
+      </c>
+      <c r="D957" t="s">
+        <v>30</v>
+      </c>
+      <c r="E957">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A958" t="s">
+        <v>43</v>
+      </c>
+      <c r="B958" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C958" t="s">
+        <v>23</v>
+      </c>
+      <c r="D958" t="s">
+        <v>30</v>
+      </c>
+      <c r="E958">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A959" t="s">
+        <v>43</v>
+      </c>
+      <c r="B959" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C959" t="s">
+        <v>15</v>
+      </c>
+      <c r="D959" t="s">
+        <v>30</v>
+      </c>
+      <c r="E959">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A960" t="s">
+        <v>43</v>
+      </c>
+      <c r="B960" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C960" t="s">
+        <v>8</v>
+      </c>
+      <c r="D960" t="s">
+        <v>31</v>
+      </c>
+      <c r="E960">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A961" t="s">
+        <v>43</v>
+      </c>
+      <c r="B961" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C961" t="s">
+        <v>9</v>
+      </c>
+      <c r="D961" t="s">
+        <v>31</v>
+      </c>
+      <c r="E961">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A962" t="s">
+        <v>43</v>
+      </c>
+      <c r="B962" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C962" t="s">
+        <v>6</v>
+      </c>
+      <c r="D962" t="s">
+        <v>31</v>
+      </c>
+      <c r="E962">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A963" t="s">
+        <v>43</v>
+      </c>
+      <c r="B963" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C963" t="s">
+        <v>10</v>
+      </c>
+      <c r="D963" t="s">
+        <v>31</v>
+      </c>
+      <c r="E963">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A964" t="s">
+        <v>43</v>
+      </c>
+      <c r="B964" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C964" t="s">
+        <v>17</v>
+      </c>
+      <c r="D964" t="s">
+        <v>31</v>
+      </c>
+      <c r="E964">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A965" t="s">
+        <v>43</v>
+      </c>
+      <c r="B965" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C965" t="s">
+        <v>18</v>
+      </c>
+      <c r="D965" t="s">
+        <v>31</v>
+      </c>
+      <c r="E965">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A966" t="s">
+        <v>43</v>
+      </c>
+      <c r="B966" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C966" t="s">
+        <v>19</v>
+      </c>
+      <c r="D966" t="s">
+        <v>31</v>
+      </c>
+      <c r="E966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A967" t="s">
+        <v>43</v>
+      </c>
+      <c r="B967" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C967" t="s">
+        <v>20</v>
+      </c>
+      <c r="D967" t="s">
+        <v>31</v>
+      </c>
+      <c r="E967">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A968" t="s">
+        <v>43</v>
+      </c>
+      <c r="B968" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C968" t="s">
+        <v>39</v>
+      </c>
+      <c r="D968" t="s">
+        <v>31</v>
+      </c>
+      <c r="E968">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A969" t="s">
+        <v>43</v>
+      </c>
+      <c r="B969" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C969" t="s">
+        <v>22</v>
+      </c>
+      <c r="D969" t="s">
+        <v>31</v>
+      </c>
+      <c r="E969">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A970" t="s">
+        <v>43</v>
+      </c>
+      <c r="B970" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C970" t="s">
+        <v>23</v>
+      </c>
+      <c r="D970" t="s">
+        <v>31</v>
+      </c>
+      <c r="E970">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A971" t="s">
+        <v>43</v>
+      </c>
+      <c r="B971" s="3">
+        <v>45870</v>
+      </c>
+      <c r="C971" t="s">
+        <v>15</v>
+      </c>
+      <c r="D971" t="s">
+        <v>31</v>
+      </c>
+      <c r="E971">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A972" t="s">
+        <v>44</v>
+      </c>
+      <c r="B972" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C972" t="s">
+        <v>8</v>
+      </c>
+      <c r="D972" t="s">
+        <v>7</v>
+      </c>
+      <c r="E972">
+        <v>23.64</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A973" t="s">
+        <v>44</v>
+      </c>
+      <c r="B973" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C973" t="s">
+        <v>9</v>
+      </c>
+      <c r="D973" t="s">
+        <v>7</v>
+      </c>
+      <c r="E973">
+        <v>24.45</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A974" t="s">
+        <v>44</v>
+      </c>
+      <c r="B974" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C974" t="s">
+        <v>6</v>
+      </c>
+      <c r="D974" t="s">
+        <v>7</v>
+      </c>
+      <c r="E974">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A975" t="s">
+        <v>44</v>
+      </c>
+      <c r="B975" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C975" t="s">
+        <v>10</v>
+      </c>
+      <c r="D975" t="s">
+        <v>7</v>
+      </c>
+      <c r="E975">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A976" t="s">
+        <v>44</v>
+      </c>
+      <c r="B976" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C976" t="s">
+        <v>17</v>
+      </c>
+      <c r="D976" t="s">
+        <v>7</v>
+      </c>
+      <c r="E976">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A977" t="s">
+        <v>44</v>
+      </c>
+      <c r="B977" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C977" t="s">
+        <v>18</v>
+      </c>
+      <c r="D977" t="s">
+        <v>7</v>
+      </c>
+      <c r="E977">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A978" t="s">
+        <v>44</v>
+      </c>
+      <c r="B978" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C978" t="s">
+        <v>19</v>
+      </c>
+      <c r="D978" t="s">
+        <v>7</v>
+      </c>
+      <c r="E978">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A979" t="s">
+        <v>44</v>
+      </c>
+      <c r="B979" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C979" t="s">
+        <v>20</v>
+      </c>
+      <c r="D979" t="s">
+        <v>7</v>
+      </c>
+      <c r="E979">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A980" t="s">
+        <v>44</v>
+      </c>
+      <c r="B980" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C980" t="s">
+        <v>39</v>
+      </c>
+      <c r="D980" t="s">
+        <v>7</v>
+      </c>
+      <c r="E980">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A981" t="s">
+        <v>44</v>
+      </c>
+      <c r="B981" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C981" t="s">
+        <v>22</v>
+      </c>
+      <c r="D981" t="s">
+        <v>7</v>
+      </c>
+      <c r="E981">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A982" t="s">
+        <v>44</v>
+      </c>
+      <c r="B982" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C982" t="s">
+        <v>23</v>
+      </c>
+      <c r="D982" t="s">
+        <v>7</v>
+      </c>
+      <c r="E982">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A983" t="s">
+        <v>44</v>
+      </c>
+      <c r="B983" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C983" t="s">
+        <v>15</v>
+      </c>
+      <c r="D983" t="s">
+        <v>7</v>
+      </c>
+      <c r="E983">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A984" t="s">
+        <v>44</v>
+      </c>
+      <c r="B984" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C984" t="s">
+        <v>8</v>
+      </c>
+      <c r="D984" t="s">
+        <v>26</v>
+      </c>
+      <c r="E984">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A985" t="s">
+        <v>44</v>
+      </c>
+      <c r="B985" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C985" t="s">
+        <v>9</v>
+      </c>
+      <c r="D985" t="s">
+        <v>26</v>
+      </c>
+      <c r="E985">
+        <v>31.04</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A986" t="s">
+        <v>44</v>
+      </c>
+      <c r="B986" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C986" t="s">
+        <v>6</v>
+      </c>
+      <c r="D986" t="s">
+        <v>26</v>
+      </c>
+      <c r="E986">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A987" t="s">
+        <v>44</v>
+      </c>
+      <c r="B987" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C987" t="s">
+        <v>10</v>
+      </c>
+      <c r="D987" t="s">
+        <v>26</v>
+      </c>
+      <c r="E987">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A988" t="s">
+        <v>44</v>
+      </c>
+      <c r="B988" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C988" t="s">
+        <v>17</v>
+      </c>
+      <c r="D988" t="s">
+        <v>26</v>
+      </c>
+      <c r="E988">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A989" t="s">
+        <v>44</v>
+      </c>
+      <c r="B989" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C989" t="s">
+        <v>18</v>
+      </c>
+      <c r="D989" t="s">
+        <v>26</v>
+      </c>
+      <c r="E989">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A990" t="s">
+        <v>44</v>
+      </c>
+      <c r="B990" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C990" t="s">
+        <v>19</v>
+      </c>
+      <c r="D990" t="s">
+        <v>26</v>
+      </c>
+      <c r="E990">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A991" t="s">
+        <v>44</v>
+      </c>
+      <c r="B991" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C991" t="s">
+        <v>20</v>
+      </c>
+      <c r="D991" t="s">
+        <v>26</v>
+      </c>
+      <c r="E991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A992" t="s">
+        <v>44</v>
+      </c>
+      <c r="B992" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C992" t="s">
+        <v>39</v>
+      </c>
+      <c r="D992" t="s">
+        <v>26</v>
+      </c>
+      <c r="E992">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A993" t="s">
+        <v>44</v>
+      </c>
+      <c r="B993" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C993" t="s">
+        <v>22</v>
+      </c>
+      <c r="D993" t="s">
+        <v>26</v>
+      </c>
+      <c r="E993">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A994" t="s">
+        <v>44</v>
+      </c>
+      <c r="B994" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C994" t="s">
+        <v>23</v>
+      </c>
+      <c r="D994" t="s">
+        <v>26</v>
+      </c>
+      <c r="E994">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A995" t="s">
+        <v>44</v>
+      </c>
+      <c r="B995" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C995" t="s">
+        <v>15</v>
+      </c>
+      <c r="D995" t="s">
+        <v>26</v>
+      </c>
+      <c r="E995">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A996" t="s">
+        <v>44</v>
+      </c>
+      <c r="B996" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C996" t="s">
+        <v>8</v>
+      </c>
+      <c r="D996" t="s">
+        <v>25</v>
+      </c>
+      <c r="E996">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A997" t="s">
+        <v>44</v>
+      </c>
+      <c r="B997" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C997" t="s">
+        <v>9</v>
+      </c>
+      <c r="D997" t="s">
+        <v>25</v>
+      </c>
+      <c r="E997">
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A998" t="s">
+        <v>44</v>
+      </c>
+      <c r="B998" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C998" t="s">
+        <v>6</v>
+      </c>
+      <c r="D998" t="s">
+        <v>25</v>
+      </c>
+      <c r="E998">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A999" t="s">
+        <v>44</v>
+      </c>
+      <c r="B999" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C999" t="s">
+        <v>10</v>
+      </c>
+      <c r="D999" t="s">
+        <v>25</v>
+      </c>
+      <c r="E999">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1000" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1000" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1000">
+        <v>16.760000000000002</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1001" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1001" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1001">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1002" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1002" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1002">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1003" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1003" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1003">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1004" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1004" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1004">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1005" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1005" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1005">
+        <v>10.77</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1006" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1006" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1006">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1007" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1007" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1007">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1008" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1008" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1008">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1009" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1009" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1009">
+        <v>22.56</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1010" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1010" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1010">
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1011" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1011" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1011">
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1012" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1012" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1012">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1013" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1013" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1013">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1014" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1014" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1014">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1015" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1015" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1015">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1016" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1016" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1016">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1017" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1017" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1017">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1018" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1018" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1018">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1019" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1019" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1019">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1020" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1020" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1020">
+        <v>32.92</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1021" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1021" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1021">
+        <v>23.47</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1022" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1022" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1022">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1023" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1023" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1023">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1024" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1024" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1024">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1025" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1025" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1025">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1026" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1026" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1026">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1027" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1027" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1027">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1028" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1028" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1028">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1029" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1029" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1029">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1030" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1030" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1030">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1031" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1031" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1031">
+        <v>9.1300000000000008</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1032" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1032" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1032">
+        <v>24.12</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1033" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1033" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1033">
+        <v>27.47</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1034" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1034" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1034">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1035" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1035" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1035">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1036" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1036" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1036">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1037" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1037" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1037">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1038" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1038" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1038">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1039" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1039" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1039">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1040" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1040" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1040">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1041" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1041" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1041">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1042" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1042" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1042">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1043" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1043" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1043">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1044" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1044" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1044">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1045" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1045" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1045">
+        <v>40.44</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1046" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1046" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1046">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1047" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1047" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1047">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1048" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1048" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1048">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1049" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1049" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1049">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1050" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1050" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1050">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1051" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1051" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1051">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1052" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1052" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1052">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1053" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1053" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1053">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1054" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1054" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1054">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1055" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1055" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1055">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1056" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1056" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1056">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1057" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1057" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1057">
+        <v>30.18</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1058" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1058" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1058">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1059" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1059" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1059">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1060" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1060" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1060">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1061" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1061" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1061">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1062" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1062" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1062">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1063" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1063" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1063">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1064" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1064" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1064">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1065" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1065" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1065">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1066" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1066" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1066">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1067" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1067" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1067">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1068" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1068" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1068">
+        <v>50.58</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1069" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1069" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1069">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1070" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1070" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1070">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1071" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1071" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1071">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1072" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1072" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1072">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1073" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1073" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1073">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1074" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1074" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1074">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1075" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1075" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1075">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1076" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1076" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1076">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1077" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1077" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1077">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1078" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1078" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1078">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1079" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1079" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1079">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1080" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1080" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1080">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1081" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1081" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1081">
+        <v>23.74</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1082" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1082" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1082">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1083" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1083" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1083">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1084" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1084" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1084">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1085" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1085" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1085">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1086" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1086" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1086">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1087" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1087" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1087">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1088" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1088" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1088">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1089" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1089" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1089">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1090" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1090" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1090">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1091" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1091" s="3">
+        <v>45877</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1091">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1092" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1092" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1092">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1093" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1093" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1093">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1094" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1094" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1094">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1095" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1095" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1095">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1096" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1096" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1096">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1097" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1097" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1097">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1098" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1098" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1098">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1099" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1099" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1099">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1100" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1100" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1100">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1101" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1101" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1101">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1102" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1102">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1103" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1103">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1104" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1104" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1104">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1105" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1105" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1105">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1106" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1106" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1106">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1107" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1107" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1107">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1108" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1108" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1109" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1109">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1110" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1110">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1111" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1112" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1112" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1113" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1113" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1113">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1114" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1114" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1114">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1115" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1115" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1115">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1116" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1116" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1116">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1117" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1117" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1117">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1118" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1118" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1118">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1119" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1119" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1119">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1120" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1120" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1120">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1121" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1121" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1121">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1122" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1122" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1123" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1123">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1124" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1124" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1124">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1125" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1125">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1126" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1126" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1126">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1127" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1127" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1127">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1128" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1128" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1129" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1129">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1130" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1130" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1130">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1131" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1131" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1131">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1132" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1132" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1132">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1133" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1133" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1133">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1134" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1134" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1134">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1135" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1135" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1135">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1136" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1136" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1136">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1137" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1137" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1137">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1138" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1138" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1138">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1139" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1139" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1139">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1140" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1140" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1140">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1141" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1141">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1142" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1142" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1142">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1143" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1143" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1143">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1144" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1144" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1144">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1145" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1145" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1145">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1146" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1146" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1146">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1147" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1147" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1147">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1148" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1148" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1148">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1149" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1149" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1150" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1150" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1150">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1151" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1151" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1151">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1152" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1152" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1152">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1153" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1153" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1153">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1154" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1154" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1154">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1155" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1155" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1155">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1156" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1156" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1156">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1157" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1157" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1157">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1158" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1158" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1158">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1159" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1159" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1160" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1160" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1160">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1161" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1161" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1161">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1162" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1162" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1162">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1163" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1163" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1163">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1164" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1164" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1164">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1165" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1165" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1165">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1166" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1166" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1166">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1167" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1167" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1167">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1168" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1168" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1168">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1169" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1169">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1170" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1170" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1170">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1171" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1171" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1172" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1172" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1173" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1173" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1173">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1174" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1174" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1174">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1175" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1175" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1175">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1176" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1176" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1176">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1177" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1177" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1177">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1178" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1178" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1178">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1179" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1179" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1179">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1180" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1180" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1180">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1181" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1181" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1181">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1182" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1182" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1182">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1183" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1183" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1184" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1184" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1184">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1185" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1185" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1185">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1186" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1186" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1186">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1187" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1187" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1187">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1188" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1188" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1188">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1189" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1189" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1189">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1190" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1190" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1190">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1191" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1191" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1191">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1192" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1192" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1192">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1193" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1193">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1194" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1194" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1194">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1195" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1195" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1196" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1196" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1197" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1197" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1197">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1198" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1198" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1198">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1199" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1199" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1199">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1200" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1200" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1200">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1201" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1201" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1201">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1202" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1202" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1202">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1203" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1203" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1203">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1204" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1204" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1204">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1205" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1205" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1205">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1206" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1206" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1206">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1207" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1207" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1207">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1208" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1208" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1208">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1209" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1209" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1209">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1210" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1210" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1210">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1211" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1211" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1211">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1212" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1212" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1212">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1213" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1213" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1213">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1214" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1214" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1214">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1215" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1215" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1215">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1216" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1216" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1216">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1217" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1217" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1218" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1218" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1219" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1219" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1219">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1220" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1220" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1220">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1221" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1221" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1222" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1222" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1222">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1223" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1223" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1223">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1224" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1224" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1224">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1225" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1225" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1225">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1226" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1226" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1226">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1227" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1227" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1227">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1228" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1228" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1228">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1229" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1229" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1229">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1230" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1230" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1230">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1231" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1231" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1232" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1232" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1233" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1233" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1233">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1234" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1234" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1234">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1235" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1235" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1235">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1236" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1236" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1236">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1237" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1237" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1237">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1238" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1238" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1238">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1239" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1239" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1239">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1240" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1240" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1240">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1241" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1241" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1241">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1242" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1242" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1242">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1243" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1243" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1244" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1244" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1244">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1245" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1245" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1245">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1246" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1246" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1246">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1247" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1247" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1247">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1248" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1248" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1248">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1249" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1249" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1249">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1250" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1250" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1250">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1251" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1251" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1251">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1252" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1252" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1252">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1253" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1253" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1253">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1254" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1254" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1254">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1255" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1255" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1255">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1256" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1256" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1256">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1257" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1257" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1257">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1258" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1258" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1258">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1259" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1259" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1259">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1260" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1260" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1260">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1261" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1261" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1261">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1262" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1262" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1262">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1263" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1263" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1264" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1264" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1265" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1265" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1266" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1266" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1266">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1267" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1267" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1268" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1268" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1269" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1269" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1269">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1270" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1270" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1270">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1271" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1271" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1271">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1272" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1272" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1272">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1273" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1273" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1273">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1274" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1274" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1274">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1275" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1275" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1275">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1276" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1276" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1276">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1277" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1277" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1277">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1278" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1278" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1279" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1279" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1279">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1280" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1280" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1280">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1281" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1281" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1281">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1282" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1282" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1282">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1283" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1283" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1283">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1284" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1284" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1284">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1285" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1285" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1285">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1286" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1286" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1286">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1287" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1287" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1287">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1288" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1288" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1288">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1289" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1289" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1289">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1290" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1290" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1290">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1291" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1291" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1291">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1292" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1292" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1292">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1293" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1293" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1293">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1294" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1294" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1295" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1295" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1295">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1296" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1296" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1296">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1297" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1297" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1297">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1298" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1298" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1298">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1299" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1299" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1299">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1300" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1300" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1300">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1301" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1301" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1302" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1302" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1302">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1303" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1303" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1303">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1304" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1304" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1305" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1305" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1305">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1306" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1306" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1306">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1307" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1307" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1307">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1308" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1308" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1308">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1309" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1309" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1309">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1310" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1310" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1310">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1311" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1311" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1311">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1312" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1312" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1312">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1313" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1313" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1313">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1314" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1314" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1314">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1315" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1315" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1316" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1316" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1316">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1317" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1317" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1317">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1318" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1318" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1318">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1319" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1319" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1319">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1320" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1320" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1321" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1321" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1321">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1322" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1322" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1322">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1323" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1323" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1323">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1324" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1324" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1324">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1325" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1325" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1326" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1326" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1326">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1327" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1327" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1328" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1328" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1328">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1329" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1329" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1329">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1330" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1330" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1330">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1331" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1331" s="3">
+        <v>45879</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1331">
+        <v>14.6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E601" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E851" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/encuestas.xlsx
+++ b/encuestas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcalcina\Downloads\r largo\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3503B74B-4662-40D4-902F-4A62C8EDD631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EC5FFD-9BB5-495A-9820-05EDD76017D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{E5839EFA-8DEA-4060-B3F2-F6908100608A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5839EFA-8DEA-4060-B3F2-F6908100608A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E5B6EA-6F2E-4584-9918-B63E0CE8D433}">
   <dimension ref="A1:F1331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1211" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1224" sqref="E1224"/>
+    <sheetView tabSelected="1" topLeftCell="A1208" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1212" sqref="B1212:B1331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21203,7 +21203,7 @@
         <v>46</v>
       </c>
       <c r="B1212" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1212" t="s">
         <v>6</v>
@@ -21220,7 +21220,7 @@
         <v>46</v>
       </c>
       <c r="B1213" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1213" t="s">
         <v>8</v>
@@ -21237,7 +21237,7 @@
         <v>46</v>
       </c>
       <c r="B1214" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1214" t="s">
         <v>9</v>
@@ -21254,7 +21254,7 @@
         <v>46</v>
       </c>
       <c r="B1215" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1215" t="s">
         <v>10</v>
@@ -21271,7 +21271,7 @@
         <v>46</v>
       </c>
       <c r="B1216" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1216" t="s">
         <v>17</v>
@@ -21288,7 +21288,7 @@
         <v>46</v>
       </c>
       <c r="B1217" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1217" t="s">
         <v>18</v>
@@ -21305,7 +21305,7 @@
         <v>46</v>
       </c>
       <c r="B1218" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1218" t="s">
         <v>19</v>
@@ -21322,7 +21322,7 @@
         <v>46</v>
       </c>
       <c r="B1219" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1219" t="s">
         <v>20</v>
@@ -21339,7 +21339,7 @@
         <v>46</v>
       </c>
       <c r="B1220" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1220" t="s">
         <v>39</v>
@@ -21356,7 +21356,7 @@
         <v>46</v>
       </c>
       <c r="B1221" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1221" t="s">
         <v>22</v>
@@ -21373,7 +21373,7 @@
         <v>46</v>
       </c>
       <c r="B1222" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1222" t="s">
         <v>23</v>
@@ -21390,7 +21390,7 @@
         <v>46</v>
       </c>
       <c r="B1223" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1223" t="s">
         <v>15</v>
@@ -21407,7 +21407,7 @@
         <v>46</v>
       </c>
       <c r="B1224" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1224" t="s">
         <v>6</v>
@@ -21424,7 +21424,7 @@
         <v>46</v>
       </c>
       <c r="B1225" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1225" t="s">
         <v>8</v>
@@ -21441,7 +21441,7 @@
         <v>46</v>
       </c>
       <c r="B1226" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1226" t="s">
         <v>9</v>
@@ -21458,7 +21458,7 @@
         <v>46</v>
       </c>
       <c r="B1227" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1227" t="s">
         <v>10</v>
@@ -21475,7 +21475,7 @@
         <v>46</v>
       </c>
       <c r="B1228" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1228" t="s">
         <v>17</v>
@@ -21492,7 +21492,7 @@
         <v>46</v>
       </c>
       <c r="B1229" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1229" t="s">
         <v>18</v>
@@ -21509,7 +21509,7 @@
         <v>46</v>
       </c>
       <c r="B1230" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1230" t="s">
         <v>19</v>
@@ -21526,7 +21526,7 @@
         <v>46</v>
       </c>
       <c r="B1231" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1231" t="s">
         <v>20</v>
@@ -21543,7 +21543,7 @@
         <v>46</v>
       </c>
       <c r="B1232" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1232" t="s">
         <v>39</v>
@@ -21560,7 +21560,7 @@
         <v>46</v>
       </c>
       <c r="B1233" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1233" t="s">
         <v>22</v>
@@ -21577,7 +21577,7 @@
         <v>46</v>
       </c>
       <c r="B1234" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1234" t="s">
         <v>23</v>
@@ -21594,7 +21594,7 @@
         <v>46</v>
       </c>
       <c r="B1235" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1235" t="s">
         <v>15</v>
@@ -21611,7 +21611,7 @@
         <v>46</v>
       </c>
       <c r="B1236" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1236" t="s">
         <v>6</v>
@@ -21628,7 +21628,7 @@
         <v>46</v>
       </c>
       <c r="B1237" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1237" t="s">
         <v>8</v>
@@ -21645,7 +21645,7 @@
         <v>46</v>
       </c>
       <c r="B1238" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1238" t="s">
         <v>9</v>
@@ -21662,7 +21662,7 @@
         <v>46</v>
       </c>
       <c r="B1239" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1239" t="s">
         <v>10</v>
@@ -21679,7 +21679,7 @@
         <v>46</v>
       </c>
       <c r="B1240" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1240" t="s">
         <v>17</v>
@@ -21696,7 +21696,7 @@
         <v>46</v>
       </c>
       <c r="B1241" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1241" t="s">
         <v>18</v>
@@ -21713,7 +21713,7 @@
         <v>46</v>
       </c>
       <c r="B1242" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1242" t="s">
         <v>19</v>
@@ -21730,7 +21730,7 @@
         <v>46</v>
       </c>
       <c r="B1243" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1243" t="s">
         <v>20</v>
@@ -21747,7 +21747,7 @@
         <v>46</v>
       </c>
       <c r="B1244" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1244" t="s">
         <v>39</v>
@@ -21764,7 +21764,7 @@
         <v>46</v>
       </c>
       <c r="B1245" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1245" t="s">
         <v>22</v>
@@ -21781,7 +21781,7 @@
         <v>46</v>
       </c>
       <c r="B1246" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1246" t="s">
         <v>23</v>
@@ -21798,7 +21798,7 @@
         <v>46</v>
       </c>
       <c r="B1247" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1247" t="s">
         <v>15</v>
@@ -21815,7 +21815,7 @@
         <v>46</v>
       </c>
       <c r="B1248" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1248" t="s">
         <v>6</v>
@@ -21832,7 +21832,7 @@
         <v>46</v>
       </c>
       <c r="B1249" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1249" t="s">
         <v>8</v>
@@ -21849,7 +21849,7 @@
         <v>46</v>
       </c>
       <c r="B1250" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1250" t="s">
         <v>9</v>
@@ -21866,7 +21866,7 @@
         <v>46</v>
       </c>
       <c r="B1251" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1251" t="s">
         <v>10</v>
@@ -21883,7 +21883,7 @@
         <v>46</v>
       </c>
       <c r="B1252" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1252" t="s">
         <v>17</v>
@@ -21900,7 +21900,7 @@
         <v>46</v>
       </c>
       <c r="B1253" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1253" t="s">
         <v>18</v>
@@ -21917,7 +21917,7 @@
         <v>46</v>
       </c>
       <c r="B1254" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1254" t="s">
         <v>19</v>
@@ -21934,7 +21934,7 @@
         <v>46</v>
       </c>
       <c r="B1255" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1255" t="s">
         <v>20</v>
@@ -21951,7 +21951,7 @@
         <v>46</v>
       </c>
       <c r="B1256" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1256" t="s">
         <v>39</v>
@@ -21968,7 +21968,7 @@
         <v>46</v>
       </c>
       <c r="B1257" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1257" t="s">
         <v>22</v>
@@ -21985,7 +21985,7 @@
         <v>46</v>
       </c>
       <c r="B1258" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1258" t="s">
         <v>23</v>
@@ -22002,7 +22002,7 @@
         <v>46</v>
       </c>
       <c r="B1259" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1259" t="s">
         <v>15</v>
@@ -22019,7 +22019,7 @@
         <v>46</v>
       </c>
       <c r="B1260" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1260" t="s">
         <v>6</v>
@@ -22036,7 +22036,7 @@
         <v>46</v>
       </c>
       <c r="B1261" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1261" t="s">
         <v>8</v>
@@ -22053,7 +22053,7 @@
         <v>46</v>
       </c>
       <c r="B1262" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1262" t="s">
         <v>9</v>
@@ -22070,7 +22070,7 @@
         <v>46</v>
       </c>
       <c r="B1263" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1263" t="s">
         <v>10</v>
@@ -22087,7 +22087,7 @@
         <v>46</v>
       </c>
       <c r="B1264" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1264" t="s">
         <v>17</v>
@@ -22104,7 +22104,7 @@
         <v>46</v>
       </c>
       <c r="B1265" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1265" t="s">
         <v>18</v>
@@ -22121,7 +22121,7 @@
         <v>46</v>
       </c>
       <c r="B1266" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1266" t="s">
         <v>19</v>
@@ -22138,7 +22138,7 @@
         <v>46</v>
       </c>
       <c r="B1267" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1267" t="s">
         <v>20</v>
@@ -22155,7 +22155,7 @@
         <v>46</v>
       </c>
       <c r="B1268" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1268" t="s">
         <v>39</v>
@@ -22172,7 +22172,7 @@
         <v>46</v>
       </c>
       <c r="B1269" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1269" t="s">
         <v>22</v>
@@ -22189,7 +22189,7 @@
         <v>46</v>
       </c>
       <c r="B1270" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1270" t="s">
         <v>23</v>
@@ -22206,7 +22206,7 @@
         <v>46</v>
       </c>
       <c r="B1271" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1271" t="s">
         <v>15</v>
@@ -22223,7 +22223,7 @@
         <v>46</v>
       </c>
       <c r="B1272" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1272" t="s">
         <v>6</v>
@@ -22240,7 +22240,7 @@
         <v>46</v>
       </c>
       <c r="B1273" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1273" t="s">
         <v>8</v>
@@ -22257,7 +22257,7 @@
         <v>46</v>
       </c>
       <c r="B1274" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1274" t="s">
         <v>9</v>
@@ -22274,7 +22274,7 @@
         <v>46</v>
       </c>
       <c r="B1275" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1275" t="s">
         <v>10</v>
@@ -22291,7 +22291,7 @@
         <v>46</v>
       </c>
       <c r="B1276" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1276" t="s">
         <v>17</v>
@@ -22308,7 +22308,7 @@
         <v>46</v>
       </c>
       <c r="B1277" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1277" t="s">
         <v>18</v>
@@ -22325,7 +22325,7 @@
         <v>46</v>
       </c>
       <c r="B1278" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1278" t="s">
         <v>19</v>
@@ -22342,7 +22342,7 @@
         <v>46</v>
       </c>
       <c r="B1279" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1279" t="s">
         <v>20</v>
@@ -22359,7 +22359,7 @@
         <v>46</v>
       </c>
       <c r="B1280" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1280" t="s">
         <v>39</v>
@@ -22376,7 +22376,7 @@
         <v>46</v>
       </c>
       <c r="B1281" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1281" t="s">
         <v>22</v>
@@ -22393,7 +22393,7 @@
         <v>46</v>
       </c>
       <c r="B1282" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1282" t="s">
         <v>23</v>
@@ -22410,7 +22410,7 @@
         <v>46</v>
       </c>
       <c r="B1283" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1283" t="s">
         <v>15</v>
@@ -22427,7 +22427,7 @@
         <v>46</v>
       </c>
       <c r="B1284" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1284" t="s">
         <v>6</v>
@@ -22444,7 +22444,7 @@
         <v>46</v>
       </c>
       <c r="B1285" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1285" t="s">
         <v>8</v>
@@ -22461,7 +22461,7 @@
         <v>46</v>
       </c>
       <c r="B1286" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1286" t="s">
         <v>9</v>
@@ -22478,7 +22478,7 @@
         <v>46</v>
       </c>
       <c r="B1287" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1287" t="s">
         <v>10</v>
@@ -22495,7 +22495,7 @@
         <v>46</v>
       </c>
       <c r="B1288" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1288" t="s">
         <v>17</v>
@@ -22512,7 +22512,7 @@
         <v>46</v>
       </c>
       <c r="B1289" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1289" t="s">
         <v>18</v>
@@ -22529,7 +22529,7 @@
         <v>46</v>
       </c>
       <c r="B1290" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1290" t="s">
         <v>19</v>
@@ -22546,7 +22546,7 @@
         <v>46</v>
       </c>
       <c r="B1291" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1291" t="s">
         <v>20</v>
@@ -22563,7 +22563,7 @@
         <v>46</v>
       </c>
       <c r="B1292" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1292" t="s">
         <v>39</v>
@@ -22580,7 +22580,7 @@
         <v>46</v>
       </c>
       <c r="B1293" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1293" t="s">
         <v>22</v>
@@ -22597,7 +22597,7 @@
         <v>46</v>
       </c>
       <c r="B1294" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1294" t="s">
         <v>23</v>
@@ -22614,7 +22614,7 @@
         <v>46</v>
       </c>
       <c r="B1295" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1295" t="s">
         <v>15</v>
@@ -22631,7 +22631,7 @@
         <v>46</v>
       </c>
       <c r="B1296" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1296" t="s">
         <v>6</v>
@@ -22648,7 +22648,7 @@
         <v>46</v>
       </c>
       <c r="B1297" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1297" t="s">
         <v>8</v>
@@ -22665,7 +22665,7 @@
         <v>46</v>
       </c>
       <c r="B1298" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1298" t="s">
         <v>9</v>
@@ -22682,7 +22682,7 @@
         <v>46</v>
       </c>
       <c r="B1299" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1299" t="s">
         <v>10</v>
@@ -22699,7 +22699,7 @@
         <v>46</v>
       </c>
       <c r="B1300" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1300" t="s">
         <v>17</v>
@@ -22716,7 +22716,7 @@
         <v>46</v>
       </c>
       <c r="B1301" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1301" t="s">
         <v>18</v>
@@ -22733,7 +22733,7 @@
         <v>46</v>
       </c>
       <c r="B1302" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1302" t="s">
         <v>19</v>
@@ -22750,7 +22750,7 @@
         <v>46</v>
       </c>
       <c r="B1303" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1303" t="s">
         <v>20</v>
@@ -22767,7 +22767,7 @@
         <v>46</v>
       </c>
       <c r="B1304" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1304" t="s">
         <v>39</v>
@@ -22784,7 +22784,7 @@
         <v>46</v>
       </c>
       <c r="B1305" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1305" t="s">
         <v>22</v>
@@ -22801,7 +22801,7 @@
         <v>46</v>
       </c>
       <c r="B1306" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1306" t="s">
         <v>23</v>
@@ -22818,7 +22818,7 @@
         <v>46</v>
       </c>
       <c r="B1307" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1307" t="s">
         <v>15</v>
@@ -22835,7 +22835,7 @@
         <v>46</v>
       </c>
       <c r="B1308" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1308" t="s">
         <v>6</v>
@@ -22852,7 +22852,7 @@
         <v>46</v>
       </c>
       <c r="B1309" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1309" t="s">
         <v>8</v>
@@ -22869,7 +22869,7 @@
         <v>46</v>
       </c>
       <c r="B1310" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1310" t="s">
         <v>9</v>
@@ -22886,7 +22886,7 @@
         <v>46</v>
       </c>
       <c r="B1311" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1311" t="s">
         <v>10</v>
@@ -22903,7 +22903,7 @@
         <v>46</v>
       </c>
       <c r="B1312" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1312" t="s">
         <v>17</v>
@@ -22920,7 +22920,7 @@
         <v>46</v>
       </c>
       <c r="B1313" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1313" t="s">
         <v>18</v>
@@ -22937,7 +22937,7 @@
         <v>46</v>
       </c>
       <c r="B1314" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1314" t="s">
         <v>19</v>
@@ -22954,7 +22954,7 @@
         <v>46</v>
       </c>
       <c r="B1315" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1315" t="s">
         <v>20</v>
@@ -22971,7 +22971,7 @@
         <v>46</v>
       </c>
       <c r="B1316" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1316" t="s">
         <v>39</v>
@@ -22988,7 +22988,7 @@
         <v>46</v>
       </c>
       <c r="B1317" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1317" t="s">
         <v>22</v>
@@ -23005,7 +23005,7 @@
         <v>46</v>
       </c>
       <c r="B1318" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1318" t="s">
         <v>23</v>
@@ -23022,7 +23022,7 @@
         <v>46</v>
       </c>
       <c r="B1319" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1319" t="s">
         <v>15</v>
@@ -23039,7 +23039,7 @@
         <v>46</v>
       </c>
       <c r="B1320" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1320" t="s">
         <v>6</v>
@@ -23056,7 +23056,7 @@
         <v>46</v>
       </c>
       <c r="B1321" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1321" t="s">
         <v>8</v>
@@ -23073,7 +23073,7 @@
         <v>46</v>
       </c>
       <c r="B1322" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1322" t="s">
         <v>9</v>
@@ -23090,7 +23090,7 @@
         <v>46</v>
       </c>
       <c r="B1323" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1323" t="s">
         <v>10</v>
@@ -23107,7 +23107,7 @@
         <v>46</v>
       </c>
       <c r="B1324" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1324" t="s">
         <v>17</v>
@@ -23124,7 +23124,7 @@
         <v>46</v>
       </c>
       <c r="B1325" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1325" t="s">
         <v>18</v>
@@ -23141,7 +23141,7 @@
         <v>46</v>
       </c>
       <c r="B1326" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1326" t="s">
         <v>19</v>
@@ -23158,7 +23158,7 @@
         <v>46</v>
       </c>
       <c r="B1327" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1327" t="s">
         <v>20</v>
@@ -23175,7 +23175,7 @@
         <v>46</v>
       </c>
       <c r="B1328" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1328" t="s">
         <v>39</v>
@@ -23192,7 +23192,7 @@
         <v>46</v>
       </c>
       <c r="B1329" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1329" t="s">
         <v>22</v>
@@ -23209,7 +23209,7 @@
         <v>46</v>
       </c>
       <c r="B1330" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1330" t="s">
         <v>23</v>
@@ -23226,7 +23226,7 @@
         <v>46</v>
       </c>
       <c r="B1331" s="3">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="C1331" t="s">
         <v>15</v>
